--- a/Seal测试用例.xlsx
+++ b/Seal测试用例.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="3" r:id="rId1"/>
+    <sheet name="01-普通视频下载" sheetId="4" r:id="rId1"/>
+    <sheet name="02-权限视频下载" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,14 +28,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
+  <si>
+    <t>用例编号</t>
+  </si>
   <si>
     <t>模块</t>
   </si>
   <si>
+    <t>子模块</t>
+  </si>
+  <si>
     <t>测试标题</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>测试环境</t>
   </si>
   <si>
@@ -47,88 +57,53 @@
     <t>期望结果</t>
   </si>
   <si>
+    <t>测试数据</t>
+  </si>
+  <si>
     <t>实际结果</t>
   </si>
   <si>
     <t>测试状态</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>测试数据</t>
+    <t>缺陷ID</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>系统：Windows 11 专业版 
-CPU:AMD Ryzen 9 5900HX 
-GPU:RTX 3060 
-模拟器：雷电模拟器 版本9.0.59 
-机型：samsung SM-N9760 
+    <t>CV.bilibili.01</t>
+  </si>
+  <si>
+    <t>下载功能</t>
+  </si>
+  <si>
+    <t>链接粘贴</t>
+  </si>
+  <si>
+    <t>点击“分享”粘贴“bilibili”网页视频下载链接下载</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>系统：Windows 11 专业版
+CPU: AMD Ryzen 9 5900HX
+GPU: RTX 3060
+模拟器：雷电模拟器 版本9.0.59
+机型：samsung SM-N9760
 系统：安卓9
 软件：Seal 版本：1.13.1 x86_64</t>
   </si>
   <si>
-    <t>下载</t>
-  </si>
-  <si>
-    <t>粘贴b站视频链接下载</t>
-  </si>
-  <si>
-    <t>以上</t>
-  </si>
-  <si>
     <t>1.APP正常启动 
-2.UI正确显示</t>
-  </si>
-  <si>
-    <t>步骤1.粘贴任意b站视频
-步骤2.点击“粘贴”按钮
-步骤3.点击“下载”按钮
-步骤4.进入下载设置页面
-步骤5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>期望1.成功粘贴视频链接
-期望2.跳出下载设置页面
-期望3.点击开始下载按钮，页面消失
-期望4. 成功识别链接格式
-期望5. 解析视频信息成功
-期望6. 开始下载视频并显示进度
-期望7.下载视频完成，可播放</t>
-  </si>
-  <si>
-    <t>实际1.成功粘贴视频链接
-实际2.跳出下载设置页面
-实际3.点击开始下载按钮，页面消失
-实际4. 成功识别链接格式
-实际5. 解析视频信息成功
-实际6. 开始下载视频并显示进度
-实际7.下载视频完成，可播放</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.b
-ilibili.c
-om/video/BV1ZBH
-Nz7ENd?t=115.5</t>
-  </si>
-  <si>
-    <t>下载功能</t>
-  </si>
-  <si>
-    <t>点击“分享”粘贴“bilibili”网页视频下载链接下载</t>
+2.UI正确显示
+3.标准下载流程（粘贴→下载→设置页面→开始下载）</t>
   </si>
   <si>
     <t>1.点击“bilibili”网页“分享”按钮
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
+2.去除中文字符标题，保留纯净URL
+2.执行标准下载流程</t>
   </si>
   <si>
     <t>1.成功粘贴视频链接
@@ -140,353 +115,355 @@
 7.下载视频完成，可播放</t>
   </si>
   <si>
-    <t>实际如期望</t>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
+  </si>
+  <si>
+    <t>下载文件完整，时长24s，可正常播放</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>CV.bilibili.01</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
+    <t>CV.bilibili.02</t>
+  </si>
+  <si>
     <t>点击“精准空降”粘贴“bilibili”网页视频下载链接下载</t>
+  </si>
+  <si>
+    <t>同上</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=23.0</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=23.0</t>
   </si>
   <si>
     <t>1.点击“bilibili”网页视频“精准空降”按钮
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.02</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=23.0</t>
-  </si>
-  <si>
-    <t>手动修改“精准空降”网页视频下载链接下载</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=23.0</t>
+  </si>
+  <si>
+    <t>CV.bilibili.03</t>
+  </si>
+  <si>
+    <t>参数解析</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=25</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=25.0</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=25.0</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=25.0,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.03</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=25.0</t>
-  </si>
-  <si>
-    <t>成功</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=25.0</t>
+  </si>
+  <si>
+    <t>CV.bilibili.04</t>
+  </si>
+  <si>
+    <t>边界值测试</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=1.0</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=1.0</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=1.0</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=1.0,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.04</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=1.0</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=1.0</t>
+  </si>
+  <si>
+    <t>CV.bilibili.05</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=-1.0</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=-1.0</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=-1.0</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=-1.0,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.05</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=-1.0</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=-1.0</t>
+  </si>
+  <si>
+    <t>CV.bilibili.06</t>
+  </si>
+  <si>
+    <t>异常处理</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=asd</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=asd</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=asd</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=asd,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.06</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=asd</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=asd</t>
+  </si>
+  <si>
+    <t>CV.bilibili.07</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=!@#$</t>
+  </si>
+  <si>
+    <t>P0</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=!@#$</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=!@#$</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=!@#$,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>特殊字符无法粘贴</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>1. 系统应限制特殊字符的粘贴
+2. 或提示"链接格式不支持"</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=!@#$</t>
+  </si>
+  <si>
+    <t>特殊字符无法输入链接栏</t>
   </si>
   <si>
     <t>Blocked</t>
   </si>
   <si>
-    <t>CV.bilibili.07</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=!@#$</t>
-  </si>
-  <si>
-    <t>无法测试</t>
+    <t>Blocked_bilibili.01</t>
+  </si>
+  <si>
+    <t>无法测试，优先回归测试</t>
+  </si>
+  <si>
+    <t>CV.bilibili.08</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=123asd</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=123asd</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=123asd</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=123asd,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.08</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=123asd</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=123asd</t>
+  </si>
+  <si>
+    <t>CV.bilibili.09</t>
+  </si>
+  <si>
+    <t>修改“精准空降”网页链接，t=</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.09</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=</t>
+  </si>
+  <si>
+    <t>CV.bilibili.10</t>
+  </si>
+  <si>
+    <t>手动修改“精准空降”链接，t=汉字</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.视频时长24s
-4.t=汉字</t>
+3.标准下载流程（粘贴→下载→设置页面→开始下载）
+4.视频时长24s
+5.t=汉字</t>
   </si>
   <si>
     <t>1.修改编号02的视频链接，t=汉字,并手动复制
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>1.成功粘贴视频链接
-2.点击开始下载按钮，页面消失
-3. 无法识别视频链接
-4. 获取视频链接时错误</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>1. 成功粘贴视频链接
+2. 系统应提示"参数格式错误"或自动忽略中文字符参数
+3. 能够正常解析视频信息并开始下载</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k?t=汉字</t>
+  </si>
+  <si>
+    <t>字符无法解析</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>CV.bilibili.10</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k?t=汉字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">截图，错误报告：App version: 1.13.1 (11314)
-Device information: Android 9 (API 28)
-Supported ABIs: [x86_64, x86, arm64-v8a, armeabi-v7a, armeabi]
-Yt-dlp version: 2025.10.15.232824
-URL: https://www.bilibili.com/video/BV1J8hQzkE6k?t=汉字
-ERROR: 'latin-1' codec can't encode characters in position 46-47: ordinal not in range(256)
-</t>
-  </si>
-  <si>
-    <t>粘贴“bilibili”网页链接下载</t>
+    <t>BUG.bilibili.01</t>
+  </si>
+  <si>
+    <t>优先回归测试</t>
+  </si>
+  <si>
+    <t>CV.bilibili.11</t>
+  </si>
+  <si>
+    <t>粘贴“bilibili”“网页”链接下载</t>
   </si>
   <si>
     <t>1.点击复制网页地址
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>CV.bilibili.11</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k/?spm_id_from=333.1391.0.0&amp;vd_source=ccfe383531eff6f310faa619cb5486a4</t>
-  </si>
-  <si>
-    <t>点击“分享”粘贴“bilibili”大会员视频网页链接下载</t>
+2.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQzkE6k/?spm_id_from=333.1391.0.0&amp;vd_source=ccfe383531eff6f310faa619cb5486a4</t>
+  </si>
+  <si>
+    <t>CV.bilibili.012</t>
+  </si>
+  <si>
+    <t>bv号修改</t>
+  </si>
+  <si>
+    <t>修改普通“bilibili”网页分享链接粘贴下载bv号，1字母</t>
+  </si>
+  <si>
+    <t>1.点击“bilibili”网页“分享”按钮
+2.去除中文字符标题，保留纯净URL
+3.修改随机插入BV号一个x字母
+4.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>1. 点击“开始下载”后，系统应弹出错误提示
+2. 下载任务失败，不产生下载文件</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQxzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
+  </si>
+  <si>
+    <t>点击下载后立刻显示错误404，无法下载视频</t>
+  </si>
+  <si>
+    <t>非功能错误</t>
+  </si>
+  <si>
+    <t>CV.bilibili.013</t>
+  </si>
+  <si>
+    <t>修改普通“bilibili”网页分享链接粘贴下载bv号，长字母</t>
+  </si>
+  <si>
+    <t>1.点击“bilibili”网页“分享”按钮
+2.去除中文字符标题，保留纯净URL
+3.修改随机输入100kb字符
+4.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>1. 系统应限制链接输入框的字符长度，或
+2. 点击“开始下载”后，因链接格式异常导致下载任务失败</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1J8hQ[这里插入100kb字符]zkE6k/?share_source=copy_web</t>
+  </si>
+  <si>
+    <t>点击下载后立刻显示错误，并且链接栏有字符上限</t>
+  </si>
+  <si>
+    <t>CV.D.bilibili.01</t>
+  </si>
+  <si>
+    <t>下载模块</t>
+  </si>
+  <si>
+    <t>权限验证</t>
+  </si>
+  <si>
+    <t>测试无大会员权限时的下载行为</t>
   </si>
   <si>
     <t>1.APP正常启动 
 2.UI正确显示
-3.没有大会员</t>
-  </si>
-  <si>
-    <t>1.点击“分享”复制视频链接
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>视频只有三分钟</t>
-  </si>
-  <si>
-    <t>CV.D.bilibili.01</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/bangumi/play/ep466782/?share_source=copy_web</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>CV.D.bilibili.02</t>
-  </si>
-  <si>
-    <t>修改普通“bilibili”网页分享链接粘贴下载bv号，1字母</t>
-  </si>
-  <si>
-    <t>1.点击“bilibili”网页“分享”按钮
-2.修改随机插入BV号一个x字母
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>点击下载后立刻显示错误404</t>
-  </si>
-  <si>
-    <t>CV.bilibili.012</t>
-  </si>
-  <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1J8hQxzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
-  </si>
-  <si>
-    <t>失败，原始视频链接：https://www.bilibili.com/video/BV1J8hQzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">错误报告：App version: 1.13.1 (11314)
-Device information: Android 9 (API 28)
-Supported ABIs: [x86_64, x86, arm64-v8a, armeabi-v7a, armeabi]
-Yt-dlp version: 2025.10.18.232824
-URL: https://www.bilibili.com/video/BV1J8hQxzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa
-ERROR: [BiliBili] 1J8hQxzkE6k: Unable to download webpage: HTTP Error 404: Not Found (caused by &lt;HTTPError 404: Not Found&gt;)
-</t>
-  </si>
-  <si>
-    <t>修改普通“bilibili”网页分享链接粘贴下载bv号，长字母</t>
-  </si>
-  <si>
-    <t>1.点击“bilibili”网页“分享”按钮
-2.修改随机输入100kb字符
-2.点击“粘贴”按钮
-3.点击“下载”按钮
-4.进入下载设置页面
-5.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>点击下载后立刻显示错误，并且链接栏有字符上限</t>
-  </si>
-  <si>
-    <t>CV.bilibili.013</t>
-  </si>
-  <si>
-    <t>视频链接：链接.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>点击“分享”粘贴“bilibili”充电专属视频网页链接下载</t>
-  </si>
-  <si>
-    <t>1.APP正常启动 
-2.UI正确显示
-3.没有充电</t>
-  </si>
-  <si>
-    <t>1.点击“bilibili”网页“分享”按钮
+3.无测试账号
+4.标准下载流程（粘贴→下载→设置页面→开始下载）</t>
+  </si>
+  <si>
+    <t>1.点击分享按钮
 2.删减中文字符
-3.点击“粘贴”按钮
-4.点击“下载”按钮
-5.进入下载设置页面
-6.点击“开始下载”按钮</t>
-  </si>
-  <si>
-    <t>视频只有一分半</t>
+3.执行标准下载流程</t>
+  </si>
+  <si>
+    <t>1.成功识别链接格式
+2.仅下载试看内容</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/play/ep466782/?share_source=copy_web</t>
+  </si>
+  <si>
+    <t>视频只有试看部分</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>符合预期：商业权限限制正常</t>
   </si>
   <si>
     <t>CV.C.bilibili.01</t>
   </si>
   <si>
-    <t>视频链接：https://www.bilibili.com/video/BV1uenCzrEmH/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
+    <t>测试未充电时的下载行为</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1uenCzrEmH/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa</t>
   </si>
 </sst>
 </file>
@@ -1102,12 +1079,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1420,18 +1406,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7777777777778" defaultRowHeight="70" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="40.7777777777778" customWidth="1"/>
+    <col min="1" max="16384" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" ht="60" customHeight="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1465,619 +1451,724 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="3:3">
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+    <row r="2" ht="60" customHeight="1" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:10">
+    <row r="3" ht="60" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:14">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:14">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="1:14">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1" spans="1:14">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="1:14">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1" spans="1:14">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="1:14">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1" spans="1:14">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="13" ht="60" customHeight="1" spans="1:14">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
+    <row r="14" ht="60" customHeight="1" spans="1:14">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" t="s">
-        <v>78</v>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
         <v>84</v>
       </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="M14"/>
+      <c r="N14" t="s">
         <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" display="https://www.bilibili.com/video/BV1J8hQzkE6k/?spm_id_from=333.1391.0.0&amp;vd_source=ccfe383531eff6f310faa619cb5486a4"/>
+    <hyperlink ref="J11" r:id="rId2" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=汉字"/>
+    <hyperlink ref="J10" r:id="rId3" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t="/>
+    <hyperlink ref="J9" r:id="rId4" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=123asd"/>
+    <hyperlink ref="J8" r:id="rId5" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=!@#$" tooltip="https://www.bilibili.com/video/BV1J8hQzkE6k?t=!@#$"/>
+    <hyperlink ref="J7" r:id="rId6" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=asd"/>
+    <hyperlink ref="J6" r:id="rId7" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=-1.0"/>
+    <hyperlink ref="J5" r:id="rId8" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=1.0"/>
+    <hyperlink ref="J4" r:id="rId9" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=25.0"/>
+    <hyperlink ref="J3" r:id="rId10" display="https://www.bilibili.com/video/BV1J8hQzkE6k?t=23.0"/>
+    <hyperlink ref="J2" r:id="rId11" display="https://www.bilibili.com/video/BV1J8hQzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa"/>
+    <hyperlink ref="J13" r:id="rId12" display="https://www.bilibili.com/video/BV1J8hQxzkE6k/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa"/>
+    <hyperlink ref="J14" r:id="rId13" display="https://www.bilibili.com/video/BV1J8hQ[这里插入100kb字符]zkE6k/?share_source=copy_web"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="A1:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="60" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="16384" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" display="https://www.bilibili.com/video/BV1uenCzrEmH/?share_source=copy_web&amp;vd_source=d9af73e43614d26bf798618273d05daa"/>
+    <hyperlink ref="J2" r:id="rId2" display="https://www.bilibili.com/bangumi/play/ep466782/?share_source=copy_web"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Seal测试用例.xlsx
+++ b/Seal测试用例.xlsx
@@ -1079,12 +1079,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1477,7 +1474,7 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1489,7 +1486,7 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
@@ -1530,7 +1527,7 @@
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K3" t="s">
@@ -1571,7 +1568,7 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K4" t="s">
@@ -1612,7 +1609,7 @@
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="K5" t="s">
@@ -1653,7 +1650,7 @@
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K6" t="s">
@@ -1694,7 +1691,7 @@
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K7" t="s">
@@ -1735,7 +1732,7 @@
       <c r="I8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K8" t="s">
@@ -1779,7 +1776,7 @@
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>71</v>
       </c>
       <c r="K9" t="s">
@@ -1820,7 +1817,7 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="K10" t="s">
@@ -1861,7 +1858,7 @@
       <c r="I11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1905,7 +1902,7 @@
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>90</v>
       </c>
       <c r="K12" t="s">
@@ -1943,10 +1940,10 @@
       <c r="H13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="K13" t="s">
@@ -1955,7 +1952,6 @@
       <c r="L13" t="s">
         <v>84</v>
       </c>
-      <c r="M13"/>
       <c r="N13" t="s">
         <v>98</v>
       </c>
@@ -1985,10 +1981,10 @@
       <c r="H14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K14" t="s">
@@ -1997,7 +1993,6 @@
       <c r="L14" t="s">
         <v>84</v>
       </c>
-      <c r="M14"/>
       <c r="N14" t="s">
         <v>98</v>
       </c>
@@ -2097,7 +2092,7 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2109,7 +2104,7 @@
       <c r="I2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>112</v>
       </c>
       <c r="K2" t="s">
@@ -2150,7 +2145,7 @@
       <c r="I3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>118</v>
       </c>
       <c r="K3" t="s">
